--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_27.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_14_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1828873.770549101</v>
+        <v>1826538.659347122</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283191</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +659,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>227.9513547492346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>106.1205759320732</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,10 +817,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>50.09050804705437</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>20.20520580535267</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,22 +899,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>181.3854821923546</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247055</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -947,19 +947,19 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>277.333079666575</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -990,10 +990,10 @@
         <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>92.83156789269627</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705016</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>85.45564210298937</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>209.0424133190815</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>93.52676208877571</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>218.8748435506841</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1230,7 +1230,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,13 +1336,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>35.75223711564628</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
@@ -1351,7 +1351,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>21.88617166826039</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1531,22 +1531,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>62.64725059288511</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>38.37250637580554</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892458</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1616,10 +1616,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187868</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,10 +1765,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="D16" t="n">
-        <v>1.255571502167253</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,7 +1819,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>99.97427419833815</v>
+        <v>55.30088041042189</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>9.146142788179368</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>61.44013021076719</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2473,25 +2473,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503968</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>192.5720565938775</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187867</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.0280580960833</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>139.5115415340516</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2953,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>180.0179497934419</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>26.70391688093255</v>
       </c>
     </row>
     <row r="32">
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3205,7 +3205,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3250,10 +3250,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>87.2147151485249</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>179.986897510568</v>
       </c>
     </row>
     <row r="35">
@@ -3424,22 +3424,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740347</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3667,19 +3667,19 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>242.9192109362943</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>146.4649598217087</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3901,22 +3901,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>124.4121185570315</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3955,7 +3955,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4135,10 +4135,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>110.0177171766856</v>
+        <v>45.66054613217656</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4147,13 +4147,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1688.365042002428</v>
+        <v>1146.918698535759</v>
       </c>
       <c r="C2" t="n">
-        <v>1688.365042002428</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="D2" t="n">
-        <v>1330.099343395678</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="E2" t="n">
-        <v>944.3110907974333</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F2" t="n">
-        <v>533.3251860078258</v>
+        <v>771.0106808461439</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2308.758267664335</v>
+        <v>1975.31341879663</v>
       </c>
       <c r="V2" t="n">
-        <v>2078.50437397824</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>2078.50437397824</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="X2" t="n">
-        <v>2078.50437397824</v>
+        <v>1537.058030511571</v>
       </c>
       <c r="Y2" t="n">
-        <v>1688.365042002428</v>
+        <v>1146.918698535759</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4401,31 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310614</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625332</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M3" t="n">
-        <v>956.2844025217532</v>
+        <v>1227.201367341571</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1614.486495938516</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>1967.526114878149</v>
       </c>
       <c r="P3" t="n">
-        <v>2422.685363568936</v>
+        <v>2214.708848710446</v>
       </c>
       <c r="Q3" t="n">
         <v>2538.001278676482</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>716.5983551657496</v>
+        <v>368.0960630783031</v>
       </c>
       <c r="C4" t="n">
-        <v>716.5983551657496</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D4" t="n">
-        <v>566.4817157534138</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E4" t="n">
-        <v>418.5686221710207</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F4" t="n">
-        <v>418.5686221710207</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>250.5821574792993</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>101.8432593428055</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>859.5709967387889</v>
       </c>
       <c r="W4" t="n">
-        <v>1347.028950037537</v>
+        <v>570.1538267018284</v>
       </c>
       <c r="X4" t="n">
-        <v>1119.039399139519</v>
+        <v>549.7445279085429</v>
       </c>
       <c r="Y4" t="n">
-        <v>898.2468199959893</v>
+        <v>549.7445279085429</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>723.4883455371855</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="C5" t="n">
-        <v>723.4883455371855</v>
+        <v>798.5551253258054</v>
       </c>
       <c r="D5" t="n">
-        <v>723.4883455371855</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="E5" t="n">
-        <v>723.4883455371855</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F5" t="n">
-        <v>312.502440747578</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G5" t="n">
-        <v>300.8380945122709</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230816</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740839</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764996</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723849</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400154</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926624</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926624</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190804</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847233</v>
+        <v>1948.760055626819</v>
       </c>
       <c r="W5" t="n">
-        <v>1500.227517577119</v>
+        <v>1948.760055626819</v>
       </c>
       <c r="X5" t="n">
-        <v>1500.227517577119</v>
+        <v>1575.294297365739</v>
       </c>
       <c r="Y5" t="n">
-        <v>1110.088185601307</v>
+        <v>1185.154965389927</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4635,37 +4635,37 @@
         <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>238.427330237016</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380239</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>909.2465818694955</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1272.508600828715</v>
+        <v>1140.868925009995</v>
       </c>
       <c r="N6" t="n">
-        <v>1659.79372942566</v>
+        <v>1528.15405360694</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601822</v>
+        <v>1860.224488783102</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4683,7 +4683,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1006.01552520271</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="C7" t="n">
-        <v>837.0793422748028</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="D7" t="n">
-        <v>686.962702862467</v>
+        <v>199.1598801503962</v>
       </c>
       <c r="E7" t="n">
-        <v>539.0496092800739</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="F7" t="n">
-        <v>392.1596617821635</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800308</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312191</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020474</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693231</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096583</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4750,25 +4750,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329314</v>
       </c>
       <c r="W7" t="n">
-        <v>1636.446120074497</v>
+        <v>638.3033838959707</v>
       </c>
       <c r="X7" t="n">
-        <v>1408.456569176479</v>
+        <v>410.3138329979533</v>
       </c>
       <c r="Y7" t="n">
-        <v>1187.663990032949</v>
+        <v>199.1598801503962</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1601.546535481797</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="C8" t="n">
-        <v>1232.584018541385</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="D8" t="n">
-        <v>874.3183199346347</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>488.5300673363904</v>
+        <v>828.1105664881544</v>
       </c>
       <c r="F8" t="n">
-        <v>77.54416254678287</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>66.51211643218342</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>3104.520121052924</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>3104.520121052924</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W8" t="n">
-        <v>2751.75146578281</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2378.28570752173</v>
+        <v>1698.50962791956</v>
       </c>
       <c r="Y8" t="n">
-        <v>1988.146375545919</v>
+        <v>1308.370295943748</v>
       </c>
     </row>
     <row r="9">
@@ -4857,22 +4857,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064583</v>
@@ -4881,16 +4881,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4905,16 +4905,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4926,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>776.4603107317583</v>
+        <v>676.468527222536</v>
       </c>
       <c r="C10" t="n">
-        <v>776.4603107317583</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="D10" t="n">
-        <v>626.3436713194226</v>
+        <v>507.5323442946291</v>
       </c>
       <c r="E10" t="n">
-        <v>478.4305777370295</v>
+        <v>359.619250712236</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4963,16 +4963,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
         <v>1617.076751502319</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1609.664835848962</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1320.561968974606</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>1065.877480768719</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>776.4603107317583</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="X10" t="n">
-        <v>776.4603107317583</v>
+        <v>858.1169920527757</v>
       </c>
       <c r="Y10" t="n">
-        <v>776.4603107317583</v>
+        <v>858.1169920527757</v>
       </c>
     </row>
     <row r="11">
@@ -5021,13 +5021,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362686</v>
@@ -5036,22 +5036,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5115,31 +5115,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>762.5477693179085</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C13" t="n">
-        <v>593.6115863900017</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D13" t="n">
-        <v>593.6115863900017</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E13" t="n">
-        <v>445.6984928076085</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>298.8085453096982</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>298.8085453096982</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>157.0967141518962</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2408.202976129952</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2225.348141784856</v>
       </c>
       <c r="T13" t="n">
-        <v>2044.506784258106</v>
+        <v>2005.746676807797</v>
       </c>
       <c r="U13" t="n">
-        <v>1755.431557602304</v>
+        <v>1716.671450151994</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.747069396417</v>
+        <v>1461.986961946107</v>
       </c>
       <c r="W13" t="n">
-        <v>1211.329899359456</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="X13" t="n">
-        <v>983.3403484614387</v>
+        <v>1172.569791909146</v>
       </c>
       <c r="Y13" t="n">
-        <v>762.5477693179085</v>
+        <v>951.777212765616</v>
       </c>
     </row>
     <row r="14">
@@ -5258,10 +5258,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
         <v>793.7736536168611</v>
@@ -5273,10 +5273,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M15" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>802.9288273958734</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>633.9926444679666</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253734</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5467,19 +5467,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.359422267661</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.369871369643</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.5772922261132</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5489,22 +5489,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5546,19 +5546,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998286</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E19" t="n">
-        <v>194.8007783998286</v>
+        <v>378.6527890600109</v>
       </c>
       <c r="F19" t="n">
-        <v>194.8007783998286</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="G19" t="n">
-        <v>194.8007783998286</v>
+        <v>231.7628415621006</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5726,34 +5726,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.77365361686</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5765,37 +5765,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5975,16 +5975,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111715</v>
@@ -6002,7 +6002,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,22 +6060,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>721.7774158311365</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>552.8412329032296</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6190,7 +6190,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>721.7774158311365</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.422291068009</v>
@@ -6303,25 +6303,25 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>590.9096564684977</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>803.2707707770319</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>634.334587849125</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.701365648819</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1205.711814750802</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>984.9192356072716</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192571</v>
@@ -6701,49 +6701,49 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349511</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N33" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>653.7474797708871</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="C34" t="n">
-        <v>484.8112968429802</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.052681478291</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038296</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797697</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910804</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570813</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279798</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853356</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580256</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832658</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487563</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510504</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854702</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648815</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611854</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>835.3959446011269</v>
+        <v>734.4896977334694</v>
       </c>
     </row>
     <row r="35">
@@ -6923,31 +6923,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7014,28 +7014,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7072,19 +7072,19 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075813</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="41">
@@ -7385,34 +7385,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7485,19 +7485,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637306</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
         <v>1307.627092998424</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7603,16 +7603,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="44">
@@ -7634,22 +7634,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7728,10 +7728,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>427.7414352191925</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M45" t="n">
         <v>680.0291294438176</v>
@@ -7783,22 +7783,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>467.7318369701959</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>273.6534998179984</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>21.18099370047543</v>
       </c>
       <c r="P3" t="n">
-        <v>199.7516311504062</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8292,16 +8292,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3273467878365</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>186.4490126143855</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -8310,13 +8310,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154995</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-13</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
@@ -9644,7 +9644,7 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9656,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-13</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -23255,7 +23255,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23419,22 +23419,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>18.61858572568042</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>28.00274033431615</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23653,10 +23653,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>63.36835372228754</v>
       </c>
       <c r="D16" t="n">
-        <v>147.3599015160451</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,7 +23707,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,28 +23887,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>40.32043864788574</v>
+        <v>84.99383243580201</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>139.469330230033</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>84.99383243580198</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,25 +24361,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>26.01259675821728</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,28 +24598,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5874149221290565</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>6.922421112517611</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>72.11969353038606</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
     </row>
     <row r="32">
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25138,10 +25138,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>138.4949402405122</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>38.5977558415268</v>
       </c>
     </row>
     <row r="35">
@@ -25312,22 +25312,22 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>45.44677382459312</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25555,19 +25555,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>43.26526345294982</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>72.11969353038612</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,22 +25789,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>15.8825942891924</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25843,7 +25843,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26023,10 +26023,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>57.22910392194228</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26035,13 +26035,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>876221.8101769291</v>
+        <v>876221.810176929</v>
       </c>
     </row>
     <row r="15">
@@ -26314,22 +26314,22 @@
         <v>554203.1946583914</v>
       </c>
       <c r="C2" t="n">
-        <v>554203.1946583912</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="D2" t="n">
         <v>554203.1946583915</v>
       </c>
       <c r="E2" t="n">
-        <v>544823.9547907539</v>
+        <v>544823.9547907542</v>
       </c>
       <c r="F2" t="n">
         <v>544823.954790754</v>
       </c>
       <c r="G2" t="n">
+        <v>544823.9547907537</v>
+      </c>
+      <c r="H2" t="n">
         <v>544823.9547907538</v>
-      </c>
-      <c r="H2" t="n">
-        <v>544823.954790754</v>
       </c>
       <c r="I2" t="n">
         <v>544823.9547907538</v>
@@ -26338,22 +26338,22 @@
         <v>544823.9547907538</v>
       </c>
       <c r="K2" t="n">
-        <v>544823.9547907541</v>
+        <v>544823.9547907538</v>
       </c>
       <c r="L2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="M2" t="n">
         <v>544823.9547907539</v>
       </c>
       <c r="N2" t="n">
-        <v>544823.954790754</v>
+        <v>544823.9547907541</v>
       </c>
       <c r="O2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
       <c r="P2" t="n">
-        <v>544823.9547907538</v>
+        <v>544823.9547907537</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>192627.1404403386</v>
+        <v>192627.140440338</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26393,10 +26393,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>48293.97000819077</v>
+        <v>48293.97000819074</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,43 +26418,43 @@
         <v>136726.2736921025</v>
       </c>
       <c r="C4" t="n">
-        <v>136726.2736921026</v>
+        <v>136726.2736921025</v>
       </c>
       <c r="D4" t="n">
-        <v>88524.23512810786</v>
+        <v>88524.23512810787</v>
       </c>
       <c r="E4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="F4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="G4" t="n">
-        <v>9337.200356756601</v>
+        <v>9337.200356756606</v>
       </c>
       <c r="H4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756603</v>
+        <v>9337.200356756595</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
+        <v>9337.20035675657</v>
+      </c>
+      <c r="L4" t="n">
         <v>9337.200356756592</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>9337.20035675659</v>
-      </c>
-      <c r="M4" t="n">
-        <v>9337.200356756592</v>
       </c>
       <c r="N4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="O4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="P4" t="n">
         <v>9337.200356756592</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984469</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-790212.6350494757</v>
+        <v>-790212.6350494752</v>
       </c>
       <c r="C6" t="n">
-        <v>324539.1485264443</v>
+        <v>324539.1485264441</v>
       </c>
       <c r="D6" t="n">
-        <v>165117.8785285519</v>
+        <v>165117.8785285524</v>
       </c>
       <c r="E6" t="n">
-        <v>108951.7628027352</v>
+        <v>108917.0248772997</v>
       </c>
       <c r="F6" t="n">
-        <v>434364.2246100903</v>
+        <v>434329.4866846546</v>
       </c>
       <c r="G6" t="n">
-        <v>434364.2246100901</v>
+        <v>434329.4866846543</v>
       </c>
       <c r="H6" t="n">
-        <v>434364.2246100903</v>
+        <v>434329.4866846544</v>
       </c>
       <c r="I6" t="n">
-        <v>434364.2246100901</v>
+        <v>434329.4866846544</v>
       </c>
       <c r="J6" t="n">
-        <v>266759.0468001075</v>
+        <v>266724.3088746718</v>
       </c>
       <c r="K6" t="n">
-        <v>434364.2246100904</v>
+        <v>434329.4866846544</v>
       </c>
       <c r="L6" t="n">
-        <v>386070.2546018995</v>
+        <v>386035.5166764635</v>
       </c>
       <c r="M6" t="n">
-        <v>349309.1966745783</v>
+        <v>349274.4587491427</v>
       </c>
       <c r="N6" t="n">
-        <v>434364.2246100903</v>
+        <v>434329.4866846547</v>
       </c>
       <c r="O6" t="n">
-        <v>434364.2246100901</v>
+        <v>434329.4866846543</v>
       </c>
       <c r="P6" t="n">
-        <v>434364.2246100901</v>
+        <v>434329.4866846543</v>
       </c>
     </row>
   </sheetData>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175388</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000385</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022928</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>155.7118084757598</v>
+        <v>155.7118084757592</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,7 +27015,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="E4" t="n">
         <v>341.3068326973556</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27261,7 +27261,7 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>190.8166233022542</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="M4" t="n">
         <v>341.3068326973556</v>
@@ -27379,25 +27379,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,22 +27427,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>99.80090372090029</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>263.6105247463958</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,10 +27537,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>54.70608715684619</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,28 +27582,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>205.5044495836845</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>119.6330703700508</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27667,19 +27667,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>50.41917880355987</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>80.85095794181481</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195737</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>9.542240033013258</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>289.2070795747048</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27901,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>32.12032840821786</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>183.7967121605229</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,7 +28071,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>264.6368266683306</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -29524,7 +29524,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29928,7 +29928,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-2.430161791044281e-12</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -31039,46 +31039,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31121,10 +31121,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31133,34 +31133,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31218,10 +31218,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181058</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336176</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.7038799491898</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857141</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.5726450767378</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730001</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342221</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166591</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190642</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147049</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
         <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745093</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
         <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744846</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,34 +31355,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347159</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436492</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
-        <v>189.817847557584</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178437</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177241</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040585</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762069</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405672</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378623</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
         <v>256.462496416876</v>
@@ -31391,10 +31391,10 @@
         <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.318536019979</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000169</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675763</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.684379313654578</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231071</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335768</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682318</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227906</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849626</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154671</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169136</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759582</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523477</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069558</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024981</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,7 +31513,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
         <v>44.86703772844668</v>
@@ -31522,40 +31522,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31674,43 +31674,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
         <v>0.1071911508780295</v>
@@ -31835,34 +31835,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>290.6810969936921</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q12" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32072,13 +32072,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,7 +32087,7 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>290.6810969936921</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32099,7 +32099,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,10 +32309,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32321,10 +32321,10 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>191.332301678856</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32549,7 +32549,7 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>249.1672590991333</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
@@ -32561,19 +32561,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>653.3850396373771</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32786,19 +32786,19 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>272.7569329364655</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32968,7 +32968,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
         <v>125.31755462929</v>
@@ -33023,28 +33023,28 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>269.1634560719508</v>
       </c>
       <c r="N27" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
@@ -33266,16 +33266,16 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>396.970088694367</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>452.8027404478649</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33500,7 +33500,7 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33509,19 +33509,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>746.4857620875799</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33734,19 +33734,19 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>396.970088694367</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>375.1407109807906</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33755,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,13 +33889,13 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L38" t="n">
         <v>867.846407116256</v>
@@ -33974,13 +33974,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33989,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34153,7 +34153,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
         <v>125.31755462929</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,13 +34214,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>233.9389431948335</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>752.2150000824579</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34375,7 +34375,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34448,13 +34448,13 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>396.970088694367</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,31 +34775,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
         <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>356.6056756965984</v>
       </c>
       <c r="P3" t="n">
-        <v>449.4311602739386</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R3" t="n">
-        <v>24.58388860977094</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,31 +34933,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225035</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407335</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067505</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457273</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376312</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949724</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637946</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402555</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939893</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,31 +35012,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>189.0712562313262</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K6" t="n">
-        <v>379.9148430313211</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.68036063785</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820402</v>
+        <v>553.380344896426</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928737</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>335.4246819961228</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235321</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667036</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870588</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
         <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831068</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468032</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295068</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818071</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805397</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,25 +35249,25 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
         <v>159.2338966127272</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>159.3393849103587</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q12" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,7 +35735,7 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>159.3393849103587</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35884,7 +35884,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
@@ -35893,7 +35893,7 @@
         <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
         <v>696.488651224316</v>
@@ -35957,10 +35957,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35969,10 +35969,10 @@
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36209,19 +36209,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>510.7887951929326</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36364,7 +36364,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
@@ -36376,7 +36376,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>134.2025531565913</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36616,7 +36616,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>127.0294221499325</v>
       </c>
       <c r="N27" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36914,16 +36914,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>254.8360547723487</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>310.2064960034205</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37157,19 +37157,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>615.1440500042467</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326294864</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
         <v>264.3325884096349</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37382,19 +37382,19 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>254.8360547723487</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>243.7989988974573</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37403,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,13 +37537,13 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
@@ -37622,13 +37622,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37637,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37801,7 +37801,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,13 +37862,13 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>91.80490927281522</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>620.8732879991246</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38023,7 +38023,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
@@ -38096,13 +38096,13 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>254.8360547723487</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
